--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="10068" windowHeight="6732" tabRatio="859" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8652" tabRatio="859" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="정건제" sheetId="1" state="visible" r:id="rId1"/>
@@ -86,19 +86,7 @@
       <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -517,423 +505,421 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C16" activeCellId="0" sqref="C16:C16"/>
+      <selection activeCell="D7" activeCellId="0" sqref="D7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.55"/>
   <cols>
-    <col width="12.6015625" customWidth="1" style="6" min="1" max="1"/>
-    <col width="9.3984375" customWidth="1" style="5" min="2" max="2"/>
+    <col width="12.6015625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.3984375" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1회차</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2회차</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3회차</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4회차</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5회차</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6회차</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7회차</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8회차</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9회차</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10회차</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1소대 1분대</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1소대 2분대</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>1소대 3분대</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>1소대 4분대</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2소대 1분대</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>2소대 2분대</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>2소대 3분대</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>2소대 4분대</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>3소대 1분대</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>3소대 2분대</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>3소대 3분대</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>3소대 4분대</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>4소대 1분대</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>4소대 2분대</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>4소대 3분대</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>4소대 4분대</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>회차 종료여부</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.511388897895813" footer="0.511388897895813"/>
@@ -950,173 +936,273 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:K17"/>
+      <selection activeCell="B2" activeCellId="0" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.55"/>
   <cols>
-    <col width="12.6015625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.6015625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1회차</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2회차</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3회차</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4회차</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5회차</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6회차</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7회차</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8회차</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9회차</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10회차</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1소대 1분대</t>
         </is>
       </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1소대 2분대</t>
         </is>
       </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>1소대 3분대</t>
         </is>
       </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>1소대 4분대</t>
         </is>
       </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2소대 1분대</t>
         </is>
       </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>2소대 2분대</t>
         </is>
       </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>2소대 3분대</t>
         </is>
       </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>2소대 4분대</t>
         </is>
       </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>3소대 1분대</t>
         </is>
       </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>3소대 2분대</t>
         </is>
       </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>3소대 3분대</t>
         </is>
       </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>3소대 4분대</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>4소대 1분대</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>4소대 2분대</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>4소대 3분대</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>4소대 4분대</t>
         </is>
@@ -1137,562 +1223,558 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F14" activeCellId="0" sqref="F14:F14"/>
+      <selection activeCell="C5" activeCellId="0" sqref="C5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.55"/>
   <cols>
-    <col width="12.6015625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.6015625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1회차</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2회차</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3회차</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4회차</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5회차</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6회차</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7회차</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8회차</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9회차</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10회차</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>4소대 4분대</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>4소대 3분대</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>4소대 2분대</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>4소대 1분대</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>3소대 4분대</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>3소대 3분대</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>3소대 2분대</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>3소대 1분대</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>2소대 4분대</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2소대 3분대</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>2소대 2분대</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>2소대 1분대</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>1소대 4분대</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>1소대 3분대</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>1소대 2분대</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="15.6" customHeight="1" s="8">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+    </row>
+    <row r="17" ht="15.6" customHeight="1" s="4">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1소대 1분대</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="8">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>회차 종료여부</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>o</t>
         </is>
@@ -1718,168 +1800,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.55"/>
   <cols>
-    <col width="12.6015625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.6015625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1회차</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2회차</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3회차</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4회차</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5회차</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6회차</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7회차</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8회차</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9회차</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10회차</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>4소대 4분대</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>4소대 3분대</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>4소대 2분대</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>4소대 1분대</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>3소대 4분대</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>3소대 3분대</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>3소대 2분대</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>3소대 1분대</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>2소대 4분대</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2소대 3분대</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>2소대 2분대</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>2소대 1분대</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>1소대 4분대</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>1소대 3분대</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>1소대 2분대</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1소대 1분대</t>
         </is>
@@ -1905,287 +1987,287 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.55"/>
   <cols>
-    <col width="12.6015625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.6015625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1회차</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2회차</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3회차</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4회차</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5회차</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6회차</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7회차</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8회차</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9회차</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10회차</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1소대 3분대</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>4소대 2분대</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>2소대 2분대</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2소대 1분대</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="5" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="5" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="27.1" customHeight="1" s="8">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="27.1" customHeight="1" s="4">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">회차 종료여부
 </t>
@@ -2212,153 +2294,153 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.55"/>
   <cols>
-    <col width="12.6015625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.6015625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1회차</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2회차</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3회차</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4회차</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5회차</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6회차</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7회차</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8회차</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9회차</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10회차</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <f>IF(ISBLANK(임의순서!A2),""&amp;"",임의순서!A2)</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <f>IF(ISBLANK(임의순서!A3),""&amp;"",임의순서!A3)</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <f>IF(ISBLANK(임의순서!A4),""&amp;"",임의순서!A4)</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <f>IF(ISBLANK(임의순서!A5),""&amp;"",임의순서!A5)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <f>IF(ISBLANK(임의순서!A6),""&amp;"",임의순서!A6)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <f>IF(ISBLANK(임의순서!A7),""&amp;"",임의순서!A7)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <f>IF(ISBLANK(임의순서!A8),""&amp;"",임의순서!A8)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <f>IF(ISBLANK(임의순서!A9),""&amp;"",임의순서!A9)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <f>IF(ISBLANK(임의순서!A10),""&amp;"",임의순서!A10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <f>IF(ISBLANK(임의순서!A11),""&amp;"",임의순서!A11)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <f>IF(ISBLANK(임의순서!A12),""&amp;"",임의순서!A12)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <f>IF(ISBLANK(임의순서!A13),""&amp;"",임의순서!A13)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <f>IF(ISBLANK(임의순서!A14),""&amp;"",임의순서!A14)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <f>IF(ISBLANK(임의순서!A15),""&amp;"",임의순서!A15)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <f>IF(ISBLANK(임의순서!A16),""&amp;"",임의순서!A16)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <f>IF(ISBLANK(임의순서!A17),""&amp;"",임의순서!A17)</f>
         <v/>
       </c>
@@ -2371,18 +2453,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>